--- a/资产负债表/300918.xlsx
+++ b/资产负债表/300918.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2259746690.36</v>
+        <v>2029905723</v>
       </c>
       <c r="P2" t="n">
-        <v>448674606.82</v>
+        <v>402279216.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>419243401.25</v>
+        <v>424924472.3</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.8436288581</v>
+        <v>1.3550770347</v>
       </c>
       <c r="S2" t="n">
-        <v>319108491.32</v>
+        <v>230242867.45</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.8698299124</v>
+        <v>-27.8480912565</v>
       </c>
       <c r="U2" t="n">
-        <v>728884530.1900001</v>
+        <v>646774199.84</v>
       </c>
       <c r="V2" t="n">
-        <v>7.7980037431</v>
+        <v>-11.2652041509</v>
       </c>
       <c r="W2" t="n">
-        <v>1327224995.65</v>
+        <v>976483491.35</v>
       </c>
       <c r="X2" t="n">
-        <v>149309655.07</v>
+        <v>210679091.63</v>
       </c>
       <c r="Y2" t="n">
-        <v>-60.5274436079</v>
+        <v>41.1021219835</v>
       </c>
       <c r="Z2" t="n">
-        <v>117274439.96</v>
+        <v>82305628.89</v>
       </c>
       <c r="AA2" t="n">
-        <v>-5.3640319316</v>
+        <v>-29.8179305584</v>
       </c>
       <c r="AB2" t="n">
-        <v>932521694.71</v>
+        <v>1053422231.65</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.9987547355</v>
+        <v>12.9649034039</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.5052978454</v>
+        <v>-10.171094324</v>
       </c>
       <c r="AE2" t="n">
-        <v>-9.547462639100001</v>
+        <v>-26.4266801371</v>
       </c>
       <c r="AF2" t="n">
-        <v>121.0426065178</v>
+        <v>145.6171519351</v>
       </c>
       <c r="AG2" t="n">
-        <v>58.7333527829</v>
+        <v>48.104869122</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300918.xlsx
+++ b/资产负债表/300918.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2029905723</v>
+        <v>2005451279.16</v>
       </c>
       <c r="P2" t="n">
-        <v>402279216.15</v>
+        <v>426600116.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>424924472.3</v>
+        <v>408279917.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3550770347</v>
+        <v>97.2631968796</v>
       </c>
       <c r="S2" t="n">
-        <v>230242867.45</v>
+        <v>341162817.91</v>
       </c>
       <c r="T2" t="n">
-        <v>-27.8480912565</v>
+        <v>-4.4571479973</v>
       </c>
       <c r="U2" t="n">
-        <v>646774199.84</v>
+        <v>573173229.11</v>
       </c>
       <c r="V2" t="n">
-        <v>-11.2652041509</v>
+        <v>-22.4837965661</v>
       </c>
       <c r="W2" t="n">
-        <v>976483491.35</v>
+        <v>900775596.63</v>
       </c>
       <c r="X2" t="n">
-        <v>210679091.63</v>
+        <v>177609612.03</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.1021219835</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>82305628.89</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-29.8179305584</v>
-      </c>
+        <v>22.0595941503</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>1053422231.65</v>
+        <v>1104675682.53</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.9649034039</v>
+        <v>10.4600413854</v>
       </c>
       <c r="AD2" t="n">
-        <v>-10.171094324</v>
+        <v>-1.5197729873</v>
       </c>
       <c r="AE2" t="n">
-        <v>-26.4266801371</v>
+        <v>-13.0803858695</v>
       </c>
       <c r="AF2" t="n">
-        <v>145.6171519351</v>
+        <v>159.5333136755</v>
       </c>
       <c r="AG2" t="n">
-        <v>48.104869122</v>
+        <v>44.9163540391</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
